--- a/Notebooks/Tables/fi_cost_mat.xlsx
+++ b/Notebooks/Tables/fi_cost_mat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Feature Importance</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>Pickup Dist from Downtown</t>
+  </si>
+  <si>
+    <t>STA_False</t>
+  </si>
+  <si>
+    <t>STA_True</t>
   </si>
   <si>
     <t>Trips Pooled</t>
@@ -408,7 +414,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6031143917986717</v>
+        <v>0.6015021982638256</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -419,7 +425,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1575669703949506</v>
+        <v>0.1601406551642771</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -430,7 +436,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.12010140974768</v>
+        <v>0.1274532941961597</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -441,10 +447,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0273209219021647</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
+        <v>0.02875858677391036</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -452,10 +458,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02630673192001614</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
+        <v>0.02299375400370172</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -463,10 +469,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01345548274946599</v>
+        <v>0.01213828767495585</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
